--- a/biology/Botanique/Salix_salviifolia/Salix_salviifolia.xlsx
+++ b/biology/Botanique/Salix_salviifolia/Salix_salviifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix salviifolia, le saule à feuilles de sauge, est une espèce de saules endémique de la péninsule ibérique.
 </t>
@@ -511,10 +523,12 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Salix cinerea  auct.
- Salix oleaefolia  auct. PSIS[2].</t>
+ Salix oleaefolia  auct. PSIS.</t>
         </is>
       </c>
     </row>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Chaton.
@@ -578,7 +594,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante endémique de la péninsule ibérique où il pousse  dans la moitié ouest. L'espèce est abondante dans les Montes de Toledo, Sierra Morena, Extremadura, la dépression Duero, la dépression Tajo et la dépression Guadiana.
 </t>
@@ -609,9 +627,11 @@
           <t>Nom  vernaculaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En castillan :  clôture, bardagera, bardaguera, bardaguera blanc, argent Claudia Salguera, sergé, saule, saule blanc Portugal, verguera, zaragato, zargatera, zargatillo, zauz, sauce salvifolio, vergaza blanc [2].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En castillan :  clôture, bardagera, bardaguera, bardaguera blanc, argent Claudia Salguera, sergé, saule, saule blanc Portugal, verguera, zaragato, zargatera, zargatillo, zauz, sauce salvifolio, vergaza blanc .</t>
         </is>
       </c>
     </row>
